--- a/data/trans_bre/PCS12_SP_R3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,74</t>
+          <t>16,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>35,6%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,77; 20,65</t>
+          <t>11,07; 21,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,23; 49,16</t>
+          <t>23,04; 50,53</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>-24,05%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 4,73</t>
+          <t>-32,68; 3,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 25,29</t>
+          <t>-66,47; 19,73</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>23,17%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,25</t>
+          <t>-0,48; 6,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 54,39</t>
+          <t>-2,86; 56,96</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>3,36%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 9,02</t>
+          <t>-17,69; 7,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 41,67</t>
+          <t>-41,46; 34,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PCS12_SP_R3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,93; 20,76</t>
+          <t>13,12; 21,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,0; 20,41</t>
+          <t>11,79; 20,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,21; 19,49</t>
+          <t>10,44; 19,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 21,14</t>
+          <t>11,09; 20,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,62; 71,26</t>
+          <t>38,09; 70,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,07; 60,62</t>
+          <t>30,36; 61,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,51; 57,21</t>
+          <t>27,28; 60,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,04; 50,53</t>
+          <t>23,21; 50,37</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,06</t>
+          <t>2,87; 7,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,89</t>
+          <t>3,15; 8,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,87</t>
+          <t>3,4; 7,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 3,62</t>
+          <t>-34,19; 3,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,57; 92,46</t>
+          <t>28,84; 91,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,88; 80,99</t>
+          <t>25,54; 81,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,95; 72,36</t>
+          <t>26,15; 72,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,47; 19,73</t>
+          <t>-67,07; 20,15</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,95</t>
+          <t>0,8; 8,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,11</t>
+          <t>-4,08; 4,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 8,01</t>
+          <t>0,15; 8,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,2</t>
+          <t>-0,74; 6,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 145,92</t>
+          <t>7,71; 145,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 54,28</t>
+          <t>-35,31; 61,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 122,53</t>
+          <t>0,72; 117,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 56,96</t>
+          <t>-6,17; 54,02</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 13,68</t>
+          <t>9,49; 13,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,0; 13,22</t>
+          <t>8,99; 13,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 11,58</t>
+          <t>7,41; 11,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 7,56</t>
+          <t>-17,59; 7,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,68; 90,99</t>
+          <t>57,57; 91,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,35; 78,21</t>
+          <t>47,09; 77,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,32; 73,18</t>
+          <t>41,47; 72,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,46; 34,78</t>
+          <t>-41,02; 35,89</t>
         </is>
       </c>
     </row>
